--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -245,12 +245,6 @@
   </si>
   <si>
     <t>vref_std</t>
-  </si>
-  <si>
-    <t>vexp1_mean</t>
-  </si>
-  <si>
-    <t>vexp1_std</t>
   </si>
   <si>
     <t>enzyme/rxn</t>
@@ -496,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="L2:M22 B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -542,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,15 +624,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="L2:M22 A8"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
@@ -648,14 +642,10 @@
       <c r="C1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -665,14 +655,8 @@
       <c r="C2" s="0" t="n">
         <v>1.10350536706976</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.10350536706976</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -682,14 +666,8 @@
       <c r="C3" s="0" t="n">
         <v>2.12397436954052E-007</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -699,14 +677,8 @@
       <c r="C4" s="0" t="n">
         <v>3.18755368558865E-009</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -716,14 +688,8 @@
       <c r="C5" s="0" t="n">
         <v>3.33787220043099E-011</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -733,14 +699,8 @@
       <c r="C6" s="0" t="n">
         <v>2.00430304742416E-005</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -748,12 +708,6 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="E7" s="0" t="n">
         <v>6.60284204552005E-011</v>
       </c>
     </row>
@@ -776,7 +730,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:M22 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,16 +740,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +953,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:M22 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,13 +966,13 @@
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,57 +1273,57 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="L2:M22"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.5263157894737"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4210526315789"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1377,13 +1331,13 @@
         <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>24</v>
@@ -1400,16 +1354,16 @@
         <v>40</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>97</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>24</v>
@@ -1426,16 +1380,16 @@
         <v>41</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>27</v>
@@ -1455,16 +1409,16 @@
         <v>42</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -1478,19 +1432,19 @@
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -1504,16 +1458,16 @@
         <v>44</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>27</v>
@@ -1530,7 +1484,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1544,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1558,7 +1512,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1572,7 +1526,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1586,7 +1540,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1600,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1614,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1642,7 +1596,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:M22 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2579,7 +2533,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="L2:M22 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3026,7 +2980,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="L2:M22 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3252,7 +3206,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:M22 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3349,7 +3303,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:M22 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3481,7 +3435,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="L2:M22 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3613,7 +3567,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="L2:M22 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3794,7 +3748,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="L2:M22 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,330 +32,336 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="108">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Unnamed: 1</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model1_allosteric2</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_mean</t>
-  </si>
-  <si>
-    <t>vref_std</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>MBo10_LB2 (M)</t>
-  </si>
-  <si>
-    <t>MBo10_UB2 (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>substrateInhibOrderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m6</t>
-  </si>
-  <si>
-    <t>m5 m14</t>
-  </si>
-  <si>
-    <t>UniUniPromiscuous</t>
-  </si>
-  <si>
-    <t>m5 m6</t>
-  </si>
-  <si>
-    <t>m7 m10</t>
-  </si>
-  <si>
-    <t>r2 r5</t>
-  </si>
-  <si>
-    <t>OrdPromiscIndep</t>
-  </si>
-  <si>
-    <t>m1 m7 m1 m10</t>
-  </si>
-  <si>
-    <t>m8 m11 m12 m12</t>
-  </si>
-  <si>
-    <t>r3 r6</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m2 m8 </t>
-  </si>
-  <si>
-    <t>m9 m13</t>
-  </si>
-  <si>
-    <t>m5 m8</t>
-  </si>
-  <si>
-    <t>m5 m7</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>fixedExchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model1_allosteric2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2 (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrateInhibOrderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUniPromiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2 r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdPromiscIndep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1 m7 m1 m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8 m11 m12 m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3 r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixedExchange</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -446,13 +452,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -488,15 +498,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,62 +541,62 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -594,21 +604,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -623,31 +641,31 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A5:B5 E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -658,7 +676,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -669,7 +687,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -680,7 +698,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -691,7 +709,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -702,7 +720,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -714,7 +732,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -729,32 +747,32 @@
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -768,7 +786,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -782,7 +800,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -796,7 +814,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -810,7 +828,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -824,7 +842,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -838,7 +856,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -852,7 +870,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -866,7 +884,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -880,7 +898,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -894,7 +912,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -908,7 +926,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -922,7 +940,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -937,7 +955,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -952,32 +970,32 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -991,7 +1009,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1005,7 +1023,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1019,7 +1037,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1033,7 +1051,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1047,7 +1065,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1061,7 +1079,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1075,7 +1093,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1089,7 +1107,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1103,7 +1121,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1117,7 +1135,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1131,7 +1149,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1145,7 +1163,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1159,7 +1177,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1173,7 +1191,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1187,7 +1205,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1201,7 +1219,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1215,7 +1233,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1229,7 +1247,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1243,7 +1261,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1258,7 +1276,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1273,74 +1291,74 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="A5:B5 M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4210526315789"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1351,22 +1369,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -1377,25 +1395,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1406,19 +1424,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -1429,22 +1447,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -1455,22 +1473,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1481,10 +1499,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1495,10 +1513,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1509,10 +1527,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1523,10 +1541,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1537,10 +1555,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1551,10 +1569,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1565,10 +1583,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1580,7 +1598,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1595,83 +1613,83 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1736,7 +1754,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1801,7 +1819,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1866,7 +1884,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1931,7 +1949,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1996,7 +2014,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2061,7 +2079,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2126,7 +2144,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2191,7 +2209,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2256,7 +2274,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2321,7 +2339,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2386,7 +2404,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2451,7 +2469,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2517,7 +2535,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2532,41 +2550,41 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A5:B5 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2583,10 +2601,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2603,10 +2621,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2623,10 +2641,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2643,10 +2661,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2663,10 +2681,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2683,10 +2701,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2703,10 +2721,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2723,10 +2741,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2743,10 +2761,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2763,10 +2781,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2783,10 +2801,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2803,10 +2821,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2823,10 +2841,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2843,10 +2861,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2863,10 +2881,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2883,10 +2901,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2903,10 +2921,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2923,10 +2941,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2943,10 +2961,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2964,7 +2982,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2979,38 +2997,38 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -3021,10 +3039,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -3035,10 +3053,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -3049,10 +3067,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -3063,10 +3081,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -3077,10 +3095,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -3091,10 +3109,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -3105,10 +3123,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -3119,10 +3137,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -3133,10 +3151,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -3147,10 +3165,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -3161,10 +3179,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -3175,10 +3193,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -3190,7 +3208,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3205,89 +3223,89 @@
   </sheetPr>
   <dimension ref="A2:A15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3302,124 +3320,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3434,124 +3452,124 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3566,29 +3584,29 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3599,7 +3617,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3610,7 +3628,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3621,7 +3639,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3632,7 +3650,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3643,7 +3661,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3654,7 +3672,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3676,7 +3694,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3687,7 +3705,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3698,7 +3716,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3709,7 +3727,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3720,7 +3738,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3732,7 +3750,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3747,29 +3765,29 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3780,7 +3798,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3791,7 +3809,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3802,7 +3820,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3813,7 +3831,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3824,7 +3842,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3835,7 +3853,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3846,7 +3864,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3857,7 +3875,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3868,7 +3886,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3879,7 +3897,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3890,7 +3908,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3901,7 +3919,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3912,7 +3930,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3923,7 +3941,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3934,7 +3952,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3945,7 +3963,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3956,7 +3974,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3967,7 +3985,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3978,7 +3996,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3990,7 +4008,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -500,8 +500,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="C2:C7 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="A5:B5 E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -671,7 +671,8 @@
         <v>-22.0149320730417</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>1.10350536706976</v>
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +683,8 @@
         <v>0.285369137837419</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>2.12397436954052E-007</v>
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +695,8 @@
         <v>0.0578197638950879</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>3.18755368558865E-009</v>
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +707,8 @@
         <v>-0.00439408376660814</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>3.33787220043099E-011</v>
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,7 +719,8 @@
         <v>6.84865633256387</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2.00430304742416E-005</v>
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,7 +731,8 @@
         <v>-0.00242684925806694</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6.60284204552005E-011</v>
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +754,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -971,7 +977,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,16 +1298,16 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="A5:B5 M22"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="C2:C7 M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="33.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
@@ -1614,7 +1620,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2551,7 +2557,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A5:B5 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2998,7 +3004,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="A5:B5 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:C7 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3224,7 +3230,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C2:C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3321,7 +3327,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C2:C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3453,7 +3459,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C2:C7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3585,7 +3591,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3766,7 +3772,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A5:B5 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="C2:C7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="104">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -46,13 +46,13 @@
     <t xml:space="preserve">toy_model1_allosteric2</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -79,18 +79,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -205,12 +196,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -498,15 +480,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="C2:C7 A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -517,24 +500,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -593,6 +576,9 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -602,27 +588,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -641,8 +609,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,20 +620,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -677,7 +645,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -689,7 +657,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -701,7 +669,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -713,7 +681,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -725,7 +693,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
@@ -754,7 +722,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,21 +732,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -792,7 +760,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -806,7 +774,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -820,7 +788,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -834,7 +802,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -848,7 +816,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -862,7 +830,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -876,7 +844,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -890,7 +858,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -904,7 +872,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -918,7 +886,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -932,7 +900,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -946,7 +914,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -977,7 +945,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -987,21 +955,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -1015,7 +983,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1029,7 +997,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1043,7 +1011,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1057,7 +1025,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1071,7 +1039,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -1085,7 +1053,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -1099,7 +1067,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -1113,7 +1081,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -1127,7 +1095,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -1141,7 +1109,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1155,7 +1123,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1169,7 +1137,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1183,7 +1151,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1197,7 +1165,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1211,7 +1179,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1225,7 +1193,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1239,7 +1207,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1253,7 +1221,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1267,7 +1235,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1298,7 +1266,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="C2:C7 M22"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="B3 M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1314,57 +1282,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1375,22 +1343,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -1401,25 +1369,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1430,19 +1398,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -1453,22 +1421,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -1479,22 +1447,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1505,10 +1473,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1519,10 +1487,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1533,10 +1501,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1547,10 +1515,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1561,10 +1529,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1575,10 +1543,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1589,10 +1557,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1620,7 +1588,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1630,72 +1598,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1760,7 +1728,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1825,7 +1793,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1890,7 +1858,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1955,7 +1923,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2020,7 +1988,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -2085,7 +2053,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2150,7 +2118,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2215,7 +2183,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2280,7 +2248,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2345,7 +2313,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2410,7 +2378,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2475,7 +2443,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2554,434 +2522,309 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C2:C7"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3001,214 +2844,173 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="C2:C7 B2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3032,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C2:C7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3240,72 +3042,72 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3327,7 +3129,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C2:C7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3337,107 +3139,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3261,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C2:C7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3469,107 +3271,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3393,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C2:C7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3601,18 +3403,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3623,7 +3425,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3634,7 +3436,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3645,7 +3447,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3656,7 +3458,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3667,7 +3469,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3678,7 +3480,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3689,7 +3491,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3700,7 +3502,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3711,7 +3513,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3722,7 +3524,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3733,7 +3535,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3744,7 +3546,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3772,7 +3574,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="C2:C7 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3782,18 +3584,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3804,7 +3606,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3815,7 +3617,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3826,7 +3628,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3837,7 +3639,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3848,7 +3650,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3859,7 +3661,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3870,7 +3672,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3881,7 +3683,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3892,7 +3694,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3903,7 +3705,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3914,7 +3716,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3925,7 +3727,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3936,7 +3738,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3947,7 +3749,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3958,7 +3760,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3969,7 +3771,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3980,7 +3782,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3991,7 +3793,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -4002,7 +3804,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -447,12 +444,12 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -482,7 +479,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -610,7 +607,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -620,13 +617,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -722,7 +719,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,16 +729,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -945,7 +942,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,16 +952,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,7 +1263,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="B3 M22"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1282,40 +1279,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,13 +1320,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>87</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>23</v>
@@ -1346,16 +1343,16 @@
         <v>39</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>23</v>
@@ -1372,16 +1369,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>26</v>
@@ -1401,16 +1398,16 @@
         <v>41</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="I5" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>99</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -1424,19 +1421,19 @@
         <v>42</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>91</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -1450,16 +1447,16 @@
         <v>43</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>26</v>
@@ -1476,7 +1473,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1490,7 +1487,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1504,7 +1501,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1518,7 +1515,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1532,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1546,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1560,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1588,7 +1585,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2522,16 +2519,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2544,21 +2541,15 @@
       <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,13 +2557,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2580,13 +2568,10 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2594,13 +2579,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2608,111 +2590,87 @@
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2720,13 +2678,10 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,13 +2689,10 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,13 +2700,10 @@
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2762,13 +2711,10 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2776,13 +2722,10 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2790,13 +2733,10 @@
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2804,13 +2744,10 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2818,13 +2755,10 @@
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2847,7 +2781,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B3 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2861,20 +2795,20 @@
         <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2885,7 +2819,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2896,7 +2830,7 @@
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2907,7 +2841,7 @@
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -2918,7 +2852,7 @@
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -2929,7 +2863,7 @@
       <c r="A7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -2940,7 +2874,7 @@
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -2951,7 +2885,7 @@
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -2962,7 +2896,7 @@
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -2973,7 +2907,7 @@
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -2984,7 +2918,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -2995,7 +2929,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -3006,7 +2940,7 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -3032,7 +2966,7 @@
   <dimension ref="A2:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3129,7 +3063,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3139,7 +3073,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3195,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B3 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3271,7 +3205,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,7 +3327,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B3 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3403,13 +3337,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3508,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="B3 H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3584,13 +3518,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="103">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -604,118 +603,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-22.0149320730417</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">ABS(0.15*B2)</f>
-        <v>3.30223981095625</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0.285369137837419</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">ABS(0.15*B3)</f>
-        <v>0.0428053706756129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0578197638950879</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">ABS(0.15*B4)</f>
-        <v>0.00867296458426318</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-0.00439408376660814</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">ABS(0.15*B5)</f>
-        <v>0.000659112564991221</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>6.84865633256387</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">ABS(0.15*B6)</f>
-        <v>1.02729844988458</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>-0.00242684925806694</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">ABS(0.15*B7)</f>
-        <v>0.000364027388710041</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -934,7 +821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1255,7 +1142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2521,7 +2408,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -2963,9 +2850,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A15"/>
+  <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2976,72 +2863,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3192,138 +3114,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A22"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -3500,7 +3290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3756,4 +3546,116 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-22.0149320730417</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">ABS(0.15*B2)</f>
+        <v>3.30223981095625</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.285369137837419</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">ABS(0.15*B3)</f>
+        <v>0.0428053706756129</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.0578197638950879</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">ABS(0.15*B4)</f>
+        <v>0.00867296458426318</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-0.00439408376660814</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">ABS(0.15*B5)</f>
+        <v>0.000659112564991221</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6.84865633256387</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">ABS(0.15*B6)</f>
+        <v>1.02729844988458</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>-0.00242684925806694</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">ABS(0.15*B7)</f>
+        <v>0.000364027388710041</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model1_allosteric2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="106">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -430,7 +439,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,6 +450,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -478,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,64 +541,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -606,7 +633,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,21 +643,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.938745891927311</v>
@@ -644,7 +671,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.918129270809538</v>
@@ -658,7 +685,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.979330692978098</v>
@@ -672,7 +699,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.870960152966783</v>
@@ -686,7 +713,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -700,7 +727,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -714,7 +741,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -728,7 +755,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -742,7 +769,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -756,7 +783,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -770,7 +797,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -784,7 +811,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -798,7 +825,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -829,7 +856,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,21 +866,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.729362608113343</v>
@@ -867,7 +894,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -881,7 +908,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -895,7 +922,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -909,7 +936,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -923,7 +950,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.985171462369796</v>
@@ -937,7 +964,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.875198318353468</v>
@@ -951,7 +978,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.992232956019871</v>
@@ -965,7 +992,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.87219768970854</v>
@@ -979,7 +1006,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.997064475108798</v>
@@ -993,7 +1020,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1007,7 +1034,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.935839477601494</v>
@@ -1021,7 +1048,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1035,7 +1062,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1049,7 +1076,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.864112211147392</v>
@@ -1063,7 +1090,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1077,7 +1104,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1091,7 +1118,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.980827889050257</v>
@@ -1105,7 +1132,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.983205843276524</v>
@@ -1119,7 +1146,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.986809036820528</v>
@@ -1150,7 +1177,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M22" activeCellId="0" sqref="M22"/>
+      <selection pane="topLeft" activeCell="M22" activeCellId="1" sqref="A6:B7 M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1166,57 +1193,57 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -1227,22 +1254,22 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>1</v>
@@ -1253,25 +1280,25 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>1</v>
@@ -1282,19 +1309,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -1305,22 +1332,22 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>1</v>
@@ -1331,22 +1358,22 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>1</v>
@@ -1357,10 +1384,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -1371,10 +1398,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -1385,10 +1412,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -1399,10 +1426,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -1413,10 +1440,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0</v>
@@ -1427,10 +1454,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0</v>
@@ -1441,10 +1468,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>0</v>
@@ -1472,7 +1499,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,72 +1509,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1612,7 +1639,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1677,7 +1704,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-1</v>
@@ -1742,7 +1769,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1807,7 +1834,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1872,7 +1899,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-1</v>
@@ -1937,7 +1964,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2002,7 +2029,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2067,7 +2094,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2132,7 +2159,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2197,7 +2224,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2262,7 +2289,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2327,7 +2354,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2409,7 +2436,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2420,21 +2447,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2442,10 +2469,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2453,10 +2480,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2464,10 +2491,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2475,10 +2502,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -2486,10 +2513,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -2497,10 +2524,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -2508,10 +2535,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -2519,10 +2546,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -2530,10 +2557,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -2541,10 +2568,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -2552,10 +2579,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2563,10 +2590,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2574,10 +2601,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -2585,10 +2612,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -2596,10 +2623,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -2607,10 +2634,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -2618,10 +2645,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -2629,10 +2656,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -2640,10 +2667,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -2668,7 +2695,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2679,24 +2706,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -2704,10 +2731,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -2715,10 +2742,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -2726,10 +2753,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -2737,10 +2764,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -2748,10 +2775,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -2759,10 +2786,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -2770,10 +2797,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -2781,10 +2808,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -2792,10 +2819,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -2803,10 +2830,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -2814,10 +2841,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -2825,10 +2852,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -2852,8 +2879,8 @@
   </sheetPr>
   <dimension ref="A2:A22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2863,107 +2890,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3012,7 @@
   <dimension ref="A2:A22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2995,107 +3022,107 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3144,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3127,18 +3154,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-60</v>
@@ -3149,7 +3176,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-37.2</v>
@@ -3160,7 +3187,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-50</v>
@@ -3171,7 +3198,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-23.24</v>
@@ -3182,7 +3209,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-43.2</v>
@@ -3193,7 +3220,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-24.6</v>
@@ -3204,7 +3231,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-40</v>
@@ -3215,7 +3242,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-10</v>
@@ -3226,7 +3253,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-30</v>
@@ -3237,7 +3264,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-10</v>
@@ -3248,7 +3275,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-10</v>
@@ -3259,7 +3286,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-10</v>
@@ -3270,7 +3297,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-10</v>
@@ -3298,7 +3325,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="1" sqref="A6:B7 H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3308,18 +3335,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1.65155467201437E-005</v>
@@ -3330,7 +3357,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -3341,7 +3368,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1E-012</v>
@@ -3352,7 +3379,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -3363,7 +3390,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -3374,7 +3401,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.00161010544336061</v>
@@ -3385,7 +3412,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.0018583615823201</v>
@@ -3396,7 +3423,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.00102168275785283</v>
@@ -3407,7 +3434,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.0171065051554435</v>
@@ -3418,7 +3445,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.00285146987847134</v>
@@ -3429,7 +3456,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1E-012</v>
@@ -3440,7 +3467,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.0013710175574537</v>
@@ -3451,7 +3478,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -3462,7 +3489,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -3473,7 +3500,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.37459615540709E-005</v>
@@ -3484,7 +3511,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1E-012</v>
@@ -3495,7 +3522,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1E-012</v>
@@ -3506,7 +3533,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>6.69219105835325E-006</v>
@@ -3517,7 +3544,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.00351539405111918</v>
@@ -3528,7 +3555,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.000588959799304437</v>
@@ -3556,7 +3583,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A6:B7 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3566,20 +3593,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-22.0149320730417</v>
@@ -3591,7 +3618,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.285369137837419</v>
@@ -3603,7 +3630,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0578197638950879</v>
@@ -3615,7 +3642,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-0.00439408376660814</v>
@@ -3627,7 +3654,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.84865633256387</v>
@@ -3639,7 +3666,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-0.00242684925806694</v>
